--- a/Documents/SWQ/OSWRP.xlsx
+++ b/Documents/SWQ/OSWRP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8064"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8064" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="gamma model (graph)" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="gamma model" sheetId="2" r:id="rId4"/>
     <sheet name="gamma before release" sheetId="7" r:id="rId5"/>
     <sheet name="bun not usual" sheetId="12" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="NewRealDataAstah" sheetId="14" r:id="rId7"/>
+    <sheet name="NewRealDataAstah (graph)" sheetId="15" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
   <si>
     <t>時間(日)</t>
     <rPh sb="0" eb="2">
@@ -194,6 +196,59 @@
     <t>c3/(c2-c1)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>インストーラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正部分</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能網羅</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラッグドロップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース以外</t>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pro最終</t>
+    <rPh sb="3" eb="5">
+      <t>サイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デンソー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新日鉄ソリュ</t>
+    <rPh sb="0" eb="3">
+      <t>シンニッテツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -253,11 +308,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -292,7 +356,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -952,14 +1015,781 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396439320"/>
-        <c:axId val="396443632"/>
+        <c:axId val="338067896"/>
+        <c:axId val="338074560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396439320"/>
+        <c:axId val="338067896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="37"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338074560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338074560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Software Reliability</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338067896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Exponential Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$I$1:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.114999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.344999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.574999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.689999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.804999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.919999999999987</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.034999999999986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.149999999999984</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.264999999999983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.379999999999981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.49499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.609999999999978</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.724999999999977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.839999999999975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.954999999999973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.069999999999972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.18499999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.299999999999969</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.414999999999967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.529999999999966</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.644999999999964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.759999999999962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.874999999999961</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.989999999999959</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.104999999999958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.219999999999956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.334999999999955</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.449999999999953</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.564999999999952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.794999999999948</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.909999999999947</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.024999999999945</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.139999999999944</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>27.254999999999942</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.369999999999941</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.484999999999939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.599999999999937</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.714999999999936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.829999999999934</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27.944999999999933</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28.059999999999931</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28.17499999999993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.289999999999928</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.404999999999927</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.519999999999925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.634999999999923</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.749999999999922</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.86499999999992</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28.979999999999919</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29.094999999999917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.209999999999916</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29.324999999999914</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>29.439999999999912</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.554999999999911</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29.669999999999909</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.784999999999908</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.899999999999906</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.014999999999905</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.129999999999903</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.244999999999902</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30.474999999999898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30.589999999999897</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.704999999999895</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30.819999999999894</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30.934999999999892</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31.049999999999891</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.164999999999889</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31.279999999999887</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.394999999999886</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31.509999999999884</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31.624999999999883</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31.739999999999881</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31.85499999999988</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.969999999999878</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>32.08499999999988</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.199999999999882</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>32.314999999999884</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>32.429999999999886</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32.544999999999888</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32.65999999999989</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32.774999999999892</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32.889999999999894</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>33.004999999999896</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>33.119999999999898</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>33.2349999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.349999999999902</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.464999999999904</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>33.579999999999906</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>33.694999999999908</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33.80999999999991</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33.924999999999912</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>34.039999999999914</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>34.154999999999916</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34.269999999999918</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34.38499999999992</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>34.499999999999922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$J$1:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99388780861881809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98796919813019923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98223714286788621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97668491830089432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.971306085806386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96609447832939666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96104418687149995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95614954775451266</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95140513060949217</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94680572704440802</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94234633994758243</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9380221733866273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93382862306568126</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92976126730610442</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92581585851843273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92198831513525747</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91827471397711602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91467128302504397</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91117439457539451</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90778055875409913</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9044864173690137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90128873808043375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.89818440887118078</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89517043279878616</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.89224392301352151</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88940209802698733</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8866422772169793</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88396187655526282</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88135840454571401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87882945836101922</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8763727201669298</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87398595362379627</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87166700055546853</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86941377777669582</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.86722427407019775</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.86509654730554209</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86302872169214884</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86101898515930764</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85906558685657808</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85716683476814226</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.85532109343527629</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.85352678178124941</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85178237103352084</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8500863827380476</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.84843738686125991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.84683399997505315</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84527488352085467</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.84375874214858215</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84228432212701587</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.84085040982188386</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.83945583023845383</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.83809944562544958</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.83678015413735496</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83549688855226023</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.83424861504264403</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.83303433199656496</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.83185306888682742</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83070388518601757</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.82958586932509637</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.82849813769366953</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.82743983367995977</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.8264101267486389</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.82540821155489053</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.82443330709296103</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.82348465587774455</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.82256152315783115</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.82166319615874506</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.82078898335489503</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.81993821376913201</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.81911023629858937</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.81830441906574525</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.81752014879357349</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.81675683020378431</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.81601388543719744</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.81529075349519176</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.81458688970154114</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.81390176518360702</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.81323486637216968</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.81258569451916152</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81195376523244178</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81133860802709368</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8107397658924036</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.81015679487401293</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.80958926367060435</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.80903675324446256</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.808498856445522</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.80797517764820903</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.80746533240066054</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.80696894708587141</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.80648565859419075</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.80601511400687342</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.80555697029014461</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.80511089399944902</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.8046765609934845</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.80425365615761579</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.80384187313641342</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.80344091407483786</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.80305048936787693</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.80267031741825856</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.80230012440195031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="455444168"/>
+        <c:axId val="455435544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="455444168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="23"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -988,12 +1818,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396443632"/>
+        <c:crossAx val="455435544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396443632"/>
+        <c:axId val="455435544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1025,7 +1855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396439320"/>
+        <c:crossAx val="455444168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1039,6 +1869,3232 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Exponential Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$L$1:$L$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.794999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4849999999999985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.174999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5199999999999978</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.8649999999999975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2099999999999973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5549999999999971</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.8999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2449999999999966</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5899999999999963</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9349999999999961</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.2799999999999958</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6249999999999964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9699999999999971</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3149999999999977</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.6599999999999984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.695</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.765000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.110000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.455000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.145000000000007</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.490000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.835000000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.180000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.525000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.87000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.215000000000011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.560000000000009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.905000000000008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.595000000000006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.285000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.354999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21.044999999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.389999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21.734999999999992</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22.079999999999991</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.42499999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.769999999999989</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23.114999999999988</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.459999999999987</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23.804999999999986</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>24.149999999999984</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.494999999999983</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.839999999999982</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25.184999999999981</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.52999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.874999999999979</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>26.219999999999978</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.564999999999976</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.909999999999975</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.254999999999974</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27.599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.944999999999972</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>28.289999999999971</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.63499999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28.979999999999968</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29.324999999999967</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.669999999999966</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>30.014999999999965</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.359999999999964</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.704999999999963</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>31.049999999999962</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31.39499999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>31.739999999999959</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32.084999999999958</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32.429999999999957</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32.774999999999956</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33.119999999999955</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33.464999999999954</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33.809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34.154999999999951</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34.49999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$M$1:$M$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>9.2942799736409345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5934824275573103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9455256826965526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3464254924107113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7924980260369185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2803372172464993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8067938203501113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.368956045777372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9641316556597497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5898314094235069</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2437537576006843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9237706897412936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6279146494063745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.354366435783017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.101444017529122</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8675921900648902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6513730127143718</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4514569668956345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2666147809917949</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0957098716345546</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9376913549221311</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7915875845980131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6565001774571748</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5315984892423407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4161145070629284</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3093381269304545</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2106127873722634</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1193314322749317</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0349327781331139</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.956897862751382</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88474685417721932</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81803610024350593</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75635540057830164</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69932548430768926</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64659567794221706</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59784174910692367</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.55276391285616677</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51108498831421156</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.47254869430686969</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.43691807350413225</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40397403538394916</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37351400905792181</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34535069767522125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.31931092674563355</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.29523457930014468</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.27297361134142689</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.25239114153029668</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.23336060951067769</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.21576499769766308</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.19949611174349624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18445391525710195</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17054591468639668</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15768659058105725</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14579687173861877</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13480364900045472</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.12463932570800396</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.11524140205502528</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.10655209078008623</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.8517961836205092E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.108961385273813E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.4221370369354398E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.7870998974256214E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.1999451619645868E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.6570624517652721E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.1551136140335208E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.6910121958694625E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.261904465856148E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8651518666385112E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.4983147905945473E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.1591375788362688E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.8455346513003107E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.5555776826428347E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.2874837450841979E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.0396043452943635E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.8104152879076017E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5985073033378204E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.4025773822654986E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2214207635125896E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0539235260392304E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8990557395109686E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7558651313197293E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6234712311174057E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5010599568572074E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3878786090526136E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2832312424739839E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1864743868236246E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0970130900760348E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0142972601540607E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.3781828244613435E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.6710589236594325E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.0172528372406127E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.4127443513111483E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.8538163799269332E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.3370321089578525E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.8592138633266032E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.4174235676777054E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.0089446803307331E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.631265489430561E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.2820636685838298E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9591919970150833E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456831728"/>
+        <c:axId val="456833296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="456831728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="456833296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456833296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Software Failure Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="456831728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Faults</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$A$1:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$B$1:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Exponential Model</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.794999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4849999999999985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.174999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5199999999999978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8649999999999975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2099999999999973</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5549999999999971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2449999999999966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5899999999999963</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9349999999999961</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2799999999999958</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6249999999999964</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9699999999999971</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3149999999999977</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.6599999999999984</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.695</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.765000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.110000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.455000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.145000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.490000000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.835000000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.180000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.525000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.87000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.215000000000011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.560000000000009</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.905000000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.595000000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.285000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.32</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.354999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.044999999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21.389999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.734999999999992</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.079999999999991</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.42499999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22.769999999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.114999999999988</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23.459999999999987</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.804999999999986</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.149999999999984</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.494999999999983</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.839999999999982</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.184999999999981</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.52999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.874999999999979</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.219999999999978</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.564999999999976</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.909999999999975</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27.254999999999974</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.944999999999972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.289999999999971</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28.63499999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.979999999999968</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.324999999999967</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.669999999999966</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.014999999999965</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.359999999999964</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.704999999999963</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31.049999999999962</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>31.39499999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31.739999999999959</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32.084999999999958</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32.429999999999957</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32.774999999999956</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33.119999999999955</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33.464999999999954</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34.154999999999951</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>34.49999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$E$1:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3355644043209103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4196240814352521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2711427268799316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.907654155519573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.345370115908615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.599279975347994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.683242888593746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.610073016957429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.391618321805264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.038833416952613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.561846927918623</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.970023772228991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.272022743724762</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.475849754959459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.588907065068828</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.61803879581247</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.569573015662606</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.449360650712542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.262811461665692</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.014927308125365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.710332904725519</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.353304258219985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.947794960388158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.497460498430598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.005680732337666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.475580677443212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.91004971995396</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.311759383609726</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.683179756720506</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.026594680589419</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.344115792714085</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.637695511117251</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.909139039646611</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.160115468063523</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.392168035174535</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.606723618113016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.805101506119968</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.988521512773353</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.158111476547688</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.314914195824279</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.459893840995086</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.593941883087872</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.717882575367405</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.832478021618662</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42.938432862276692</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.036398607217841</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.12697764185441</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43.210726931165901</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43.288161444442864</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43.359757321801759</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.4259548019416</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.487160929144956</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.543752056168522</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.596076158413332</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.644454973604368</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.689185980136259</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.730544226249883</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.76878402128726</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43.80414049942425</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.836831065496312</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.867056731807615</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.895003354143512</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43.920842774586433</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43.944733878162424</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.96682356981551</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.987247677717292</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44.006131788466078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.023592019311288</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44.039735732151321</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.054662193695393</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.068463185848458</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44.081223570072581</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44.093021809194909</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44.103930449870823</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44.114016568668937</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44.123342184520794</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44.131964640071565</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.139936954276436</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44.147308148410985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44.154123547499992</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44.160425059018287</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44.166251430577262</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44.171638488181557</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44.176619356521009</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.181224662652362</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.185482724323144</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44.189419724095806</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44.193059870342708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44.196425546101906</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44.199537446709115</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44.202414707052057</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44.205075019229724</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44.207534741340041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44.20980899806478</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44.211911773670344</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44.213855997996134</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44.215653625959391</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44.217315711065204</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44.218852473373907</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44.220273362343526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="456829376"/>
+        <c:axId val="456819576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="456829376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="456819576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="456819576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Number of Faults</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="456829376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.794999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4849999999999985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.174999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5199999999999978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8649999999999975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2099999999999973</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5549999999999971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2449999999999966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5899999999999963</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9349999999999961</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2799999999999958</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6249999999999964</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9699999999999971</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3149999999999977</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.6599999999999984</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.695</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.765000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.110000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.455000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.145000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.490000000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.835000000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.180000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.525000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.87000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.215000000000011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.560000000000009</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.905000000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.595000000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.285000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.32</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.354999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.044999999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21.389999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.734999999999992</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.079999999999991</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.42499999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22.769999999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.114999999999988</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23.459999999999987</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.804999999999986</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.149999999999984</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.494999999999983</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.839999999999982</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.184999999999981</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.52999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.874999999999979</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.219999999999978</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.564999999999976</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.909999999999975</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27.254999999999974</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.944999999999972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.289999999999971</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28.63499999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.979999999999968</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.324999999999967</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.669999999999966</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.014999999999965</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.359999999999964</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.704999999999963</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31.049999999999962</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>31.39499999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31.739999999999959</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32.084999999999958</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32.429999999999957</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32.774999999999956</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33.119999999999955</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33.464999999999954</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34.154999999999951</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>34.49999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$E$1:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3355644043209103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4196240814352521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2711427268799316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.907654155519573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.345370115908615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.599279975347994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.683242888593746</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.610073016957429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.391618321805264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.038833416952613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.561846927918623</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.970023772228991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.272022743724762</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.475849754959459</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.588907065068828</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.61803879581247</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.569573015662606</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.449360650712542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.262811461665692</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.014927308125365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.710332904725519</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.353304258219985</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.947794960388158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.497460498430598</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.005680732337666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.475580677443212</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.91004971995396</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.311759383609726</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.683179756720506</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.026594680589419</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.344115792714085</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.637695511117251</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.909139039646611</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.160115468063523</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41.392168035174535</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.606723618113016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41.805101506119968</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41.988521512773353</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.158111476547688</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.314914195824279</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.459893840995086</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.593941883087872</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.717882575367405</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.832478021618662</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42.938432862276692</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.036398607217841</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.12697764185441</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43.210726931165901</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43.288161444442864</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43.359757321801759</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.4259548019416</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.487160929144956</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.543752056168522</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.596076158413332</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.644454973604368</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43.689185980136259</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43.730544226249883</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43.76878402128726</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43.80414049942425</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.836831065496312</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.867056731807615</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43.895003354143512</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43.920842774586433</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43.944733878162424</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43.96682356981551</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.987247677717292</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44.006131788466078</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.023592019311288</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44.039735732151321</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.054662193695393</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.068463185848458</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44.081223570072581</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44.093021809194909</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44.103930449870823</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44.114016568668937</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44.123342184520794</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44.131964640071565</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44.139936954276436</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44.147308148410985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44.154123547499992</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44.160425059018287</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44.166251430577262</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44.171638488181557</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44.176619356521009</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.181224662652362</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44.185482724323144</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44.189419724095806</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44.193059870342708</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44.196425546101906</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44.199537446709115</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44.202414707052057</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44.205075019229724</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44.207534741340041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44.20980899806478</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44.211911773670344</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44.213855997996134</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44.215653625959391</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44.217315711065204</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44.218852473373907</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44.220273362343526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.415</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1049999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.794999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1399999999999988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4849999999999985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.174999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5199999999999978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8649999999999975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2099999999999973</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5549999999999971</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2449999999999966</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5899999999999963</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9349999999999961</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2799999999999958</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6249999999999964</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9699999999999971</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3149999999999977</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.6599999999999984</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.695</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.385000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.765000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.110000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.455000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.145000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.490000000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.835000000000008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.180000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.525000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.87000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.215000000000011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.560000000000009</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.905000000000008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.595000000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.285000000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.32</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20.009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.354999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.044999999999995</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21.389999999999993</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.734999999999992</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.079999999999991</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.42499999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22.769999999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.114999999999988</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23.459999999999987</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.804999999999986</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>24.149999999999984</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>24.494999999999983</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24.839999999999982</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25.184999999999981</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25.52999999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>25.874999999999979</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>26.219999999999978</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>26.564999999999976</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>26.909999999999975</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27.254999999999974</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.944999999999972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.289999999999971</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28.63499999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.979999999999968</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.324999999999967</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29.669999999999966</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>30.014999999999965</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>30.359999999999964</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.704999999999963</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31.049999999999962</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>31.39499999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31.739999999999959</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32.084999999999958</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>32.429999999999957</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32.774999999999956</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33.119999999999955</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33.464999999999954</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>34.154999999999951</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>34.49999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'NewRealDataAstah (graph)'!$F$1:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86249999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5524999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8974999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2424999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4149999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.587499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9324999999999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1049999999999986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2774999999999985</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4499999999999984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6224999999999983</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7949999999999982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.967499999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.1399999999999979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3124999999999982</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4849999999999985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6574999999999989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8299999999999992</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0024999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.1749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3475000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.6925000000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8650000000000011</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0375000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2100000000000017</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.3825000000000021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.5550000000000024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.7275000000000027</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.0725000000000033</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.2450000000000037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.417500000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5900000000000043</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7625000000000046</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.9350000000000049</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.1075000000000053</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.2800000000000047</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.4525000000000041</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.6250000000000036</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.797500000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.9700000000000024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.1425000000000018</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.3150000000000013</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.4875000000000007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.66</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.8324999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.004999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.177499999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.522499999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.694999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.867499999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.212499999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.384999999999994</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.557499999999994</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.729999999999993</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.902499999999993</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.074999999999992</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.247499999999992</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.419999999999991</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.59249999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.76499999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.937499999999989</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.109999999999989</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.282499999999988</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.454999999999988</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13.627499999999987</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.799999999999986</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.972499999999986</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.144999999999985</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14.317499999999985</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.489999999999984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14.662499999999984</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.834999999999983</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15.007499999999983</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15.179999999999982</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15.352499999999981</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.524999999999981</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.69749999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>15.86999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16.042499999999979</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16.214999999999979</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16.387499999999978</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16.559999999999977</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16.732499999999977</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.904999999999976</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17.077499999999976</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17.249999999999975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="411445760"/>
+        <c:axId val="411446152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="411445760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411446152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411446152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411445760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1062,7 +5118,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1716,11 +5771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398918568"/>
-        <c:axId val="398923664"/>
+        <c:axId val="338071816"/>
+        <c:axId val="338072208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398918568"/>
+        <c:axId val="338071816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1745,19 +5800,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="398923664"/>
+        <c:crossAx val="338072208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398923664"/>
+        <c:axId val="338072208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,21 +5835,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="398918568"/>
+        <c:crossAx val="338071816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2734,11 +6786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="462273296"/>
-        <c:axId val="398393056"/>
+        <c:axId val="404408160"/>
+        <c:axId val="404410512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="462273296"/>
+        <c:axId val="404408160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,19 +6814,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="398393056"/>
+        <c:crossAx val="404410512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398393056"/>
+        <c:axId val="404410512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -2799,21 +6850,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462273296"/>
+        <c:crossAx val="404408160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3504,11 +7553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396438144"/>
-        <c:axId val="398922096"/>
+        <c:axId val="404411688"/>
+        <c:axId val="404408944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396438144"/>
+        <c:axId val="404411688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="18"/>
@@ -3540,12 +7589,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="398922096"/>
+        <c:crossAx val="404408944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398922096"/>
+        <c:axId val="404408944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3577,7 +7626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396438144"/>
+        <c:crossAx val="404411688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4268,11 +8317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398920136"/>
-        <c:axId val="396076984"/>
+        <c:axId val="404409336"/>
+        <c:axId val="404409728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398920136"/>
+        <c:axId val="404409336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4304,12 +8353,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396076984"/>
+        <c:crossAx val="404409728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396076984"/>
+        <c:axId val="404409728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4340,7 +8389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="398920136"/>
+        <c:crossAx val="404409336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5172,11 +9221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="344945400"/>
-        <c:axId val="396082864"/>
+        <c:axId val="404407376"/>
+        <c:axId val="404412864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="344945400"/>
+        <c:axId val="404407376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -5208,12 +9257,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396082864"/>
+        <c:crossAx val="404412864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396082864"/>
+        <c:axId val="404412864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -5245,7 +9294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344945400"/>
+        <c:crossAx val="404407376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5942,11 +9991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469668096"/>
-        <c:axId val="469661040"/>
+        <c:axId val="404411296"/>
+        <c:axId val="404406200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469668096"/>
+        <c:axId val="404411296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="18"/>
@@ -5978,12 +10027,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469661040"/>
+        <c:crossAx val="404406200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469661040"/>
+        <c:axId val="404406200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6015,7 +10064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469668096"/>
+        <c:crossAx val="404411296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6706,11 +10755,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469663784"/>
-        <c:axId val="469664960"/>
+        <c:axId val="404413256"/>
+        <c:axId val="404413648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469663784"/>
+        <c:axId val="404413256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6742,12 +10791,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469664960"/>
+        <c:crossAx val="404413648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469664960"/>
+        <c:axId val="404413648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,7 +10827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469663784"/>
+        <c:crossAx val="404413256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7610,11 +11659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469661824"/>
-        <c:axId val="469670056"/>
+        <c:axId val="404406984"/>
+        <c:axId val="338067112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469661824"/>
+        <c:axId val="404406984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -7646,12 +11695,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469670056"/>
+        <c:crossAx val="338067112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469670056"/>
+        <c:axId val="338067112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7682,7 +11731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469661824"/>
+        <c:crossAx val="404406984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7703,6 +11752,562 @@
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8371,6 +12976,274 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4983480" y="1219200"/>
+          <a:ext cx="7620" cy="2016760"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6393180" y="1219200"/>
+          <a:ext cx="7620" cy="2016760"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13111</cdr:x>
+      <cdr:y>0.49444</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.645</cdr:x>
+      <cdr:y>0.77963</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="2" name="直線コネクタ 1"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="599440" y="1356360"/>
+          <a:ext cx="2349500" cy="782320"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -8636,7 +13509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -10890,7 +15763,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -15780,400 +20653,4094 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C19"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>5.2623966942148765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>44.237696917063694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.22723216132423815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>4.3595704823928827E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1.4552483049384576E-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>-29.957571278626613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>63.915142557253226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>66.186130989111518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>44.237696917063694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.237696917063694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.78844161808530955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>4.1385278556981158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.52272726273394354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>2.7969469625504821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>9.6583177755920104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>D1*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:G65" si="0">E1-F1</f>
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <f>MAX(G:G)</f>
+        <v>35.433521512773353</v>
+      </c>
+      <c r="I1">
+        <v>23</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="M1">
+        <v>9.2942799736409345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="E2">
+        <v>3.3355644043209103</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="1">D2*0.5</f>
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>3.1630644043209104</v>
+      </c>
+      <c r="I2">
+        <v>23.114999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.99388780861881809</v>
+      </c>
+      <c r="L2">
+        <v>0.69</v>
+      </c>
+      <c r="M2">
+        <v>8.5934824275573103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>0.69</v>
+      </c>
+      <c r="E3">
+        <v>6.4196240814352521</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>6.0746240814352523</v>
+      </c>
+      <c r="I3">
+        <v>23.229999999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.98796919813019923</v>
+      </c>
+      <c r="L3">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="M3">
+        <v>7.9455256826965526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="E4">
+        <v>9.2711427268799316</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.51749999999999996</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>8.7536427268799315</v>
+      </c>
+      <c r="I4">
+        <v>23.344999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.98223714286788621</v>
+      </c>
+      <c r="L4">
+        <v>1.38</v>
+      </c>
+      <c r="M4">
+        <v>7.3464254924107113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>1.38</v>
+      </c>
+      <c r="E5">
+        <v>11.907654155519573</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>11.217654155519574</v>
+      </c>
+      <c r="I5">
+        <v>23.459999999999994</v>
+      </c>
+      <c r="J5">
+        <v>0.97668491830089432</v>
+      </c>
+      <c r="L5">
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="M5">
+        <v>6.7924980260369185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>1.7249999999999999</v>
+      </c>
+      <c r="E6">
+        <v>14.345370115908615</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.86249999999999993</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>13.482870115908614</v>
+      </c>
+      <c r="I6">
+        <v>23.574999999999992</v>
+      </c>
+      <c r="J6">
+        <v>0.971306085806386</v>
+      </c>
+      <c r="L6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M6">
+        <v>6.2803372172464993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E7">
+        <v>16.599279975347994</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>15.564279975347993</v>
+      </c>
+      <c r="I7">
+        <v>23.689999999999991</v>
+      </c>
+      <c r="J7">
+        <v>0.96609447832939666</v>
+      </c>
+      <c r="L7">
+        <v>2.415</v>
+      </c>
+      <c r="M7">
+        <v>5.8067938203501113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>2.415</v>
+      </c>
+      <c r="E8">
+        <v>18.683242888593746</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.2075</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>17.475742888593746</v>
+      </c>
+      <c r="I8">
+        <v>23.804999999999989</v>
+      </c>
+      <c r="J8">
+        <v>0.96104418687149995</v>
+      </c>
+      <c r="L8">
+        <v>2.76</v>
+      </c>
+      <c r="M8">
+        <v>5.368956045777372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>2.76</v>
+      </c>
+      <c r="E9">
+        <v>20.610073016957429</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.38</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>19.23007301695743</v>
+      </c>
+      <c r="I9">
+        <v>23.919999999999987</v>
+      </c>
+      <c r="J9">
+        <v>0.95614954775451266</v>
+      </c>
+      <c r="L9">
+        <v>3.1049999999999995</v>
+      </c>
+      <c r="M9">
+        <v>4.9641316556597497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>3.1049999999999995</v>
+      </c>
+      <c r="E10">
+        <v>22.391618321805264</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.5524999999999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>20.839118321805266</v>
+      </c>
+      <c r="I10">
+        <v>24.034999999999986</v>
+      </c>
+      <c r="J10">
+        <v>0.95140513060949217</v>
+      </c>
+      <c r="L10">
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="M10">
+        <v>4.5898314094235069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="E11">
+        <v>24.038833416952613</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.7249999999999996</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>22.313833416952612</v>
+      </c>
+      <c r="I11">
+        <v>24.149999999999984</v>
+      </c>
+      <c r="J11">
+        <v>0.94680572704440802</v>
+      </c>
+      <c r="L11">
+        <v>3.794999999999999</v>
+      </c>
+      <c r="M11">
+        <v>4.2437537576006843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>3.794999999999999</v>
+      </c>
+      <c r="E12">
+        <v>25.561846927918623</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.8974999999999995</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>23.664346927918622</v>
+      </c>
+      <c r="I12">
+        <v>24.264999999999983</v>
+      </c>
+      <c r="J12">
+        <v>0.94234633994758243</v>
+      </c>
+      <c r="L12">
+        <v>4.1399999999999988</v>
+      </c>
+      <c r="M12">
+        <v>3.9237706897412936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>4.1399999999999988</v>
+      </c>
+      <c r="E13">
+        <v>26.970023772228991</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2.0699999999999994</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>24.900023772228991</v>
+      </c>
+      <c r="I13">
+        <v>24.379999999999981</v>
+      </c>
+      <c r="J13">
+        <v>0.9380221733866273</v>
+      </c>
+      <c r="L13">
+        <v>4.4849999999999985</v>
+      </c>
+      <c r="M13">
+        <v>3.6279146494063745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>4.4849999999999985</v>
+      </c>
+      <c r="E14">
+        <v>28.272022743724762</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.2424999999999993</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>26.029522743724762</v>
+      </c>
+      <c r="I14">
+        <v>24.49499999999998</v>
+      </c>
+      <c r="J14">
+        <v>0.93382862306568126</v>
+      </c>
+      <c r="L14">
+        <v>4.8299999999999983</v>
+      </c>
+      <c r="M14">
+        <v>3.354366435783017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>4.8299999999999983</v>
+      </c>
+      <c r="E15">
+        <v>29.475849754959459</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2.4149999999999991</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>27.06084975495946</v>
+      </c>
+      <c r="I15">
+        <v>24.609999999999978</v>
+      </c>
+      <c r="J15">
+        <v>0.92976126730610442</v>
+      </c>
+      <c r="L15">
+        <v>5.174999999999998</v>
+      </c>
+      <c r="M15">
+        <v>3.101444017529122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>5.174999999999998</v>
+      </c>
+      <c r="E16">
+        <v>30.588907065068828</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2.587499999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>28.001407065068829</v>
+      </c>
+      <c r="I16">
+        <v>24.724999999999977</v>
+      </c>
+      <c r="J16">
+        <v>0.92581585851843273</v>
+      </c>
+      <c r="L16">
+        <v>5.5199999999999978</v>
+      </c>
+      <c r="M16">
+        <v>2.8675921900648902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>5.5199999999999978</v>
+      </c>
+      <c r="E17">
+        <v>31.61803879581247</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.7599999999999989</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>28.858038795812472</v>
+      </c>
+      <c r="I17">
+        <v>24.839999999999975</v>
+      </c>
+      <c r="J17">
+        <v>0.92198831513525747</v>
+      </c>
+      <c r="L17">
+        <v>5.8649999999999975</v>
+      </c>
+      <c r="M17">
+        <v>2.6513730127143718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>5.8649999999999975</v>
+      </c>
+      <c r="E18">
+        <v>32.569573015662606</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2.9324999999999988</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>29.637073015662608</v>
+      </c>
+      <c r="I18">
+        <v>24.954999999999973</v>
+      </c>
+      <c r="J18">
+        <v>0.91827471397711602</v>
+      </c>
+      <c r="L18">
+        <v>6.2099999999999973</v>
+      </c>
+      <c r="M18">
+        <v>2.4514569668956345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>6.2099999999999973</v>
+      </c>
+      <c r="E19">
+        <v>33.449360650712542</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3.1049999999999986</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>30.344360650712545</v>
+      </c>
+      <c r="I19">
+        <v>25.069999999999972</v>
+      </c>
+      <c r="J19">
+        <v>0.91467128302504397</v>
+      </c>
+      <c r="L19">
+        <v>6.5549999999999971</v>
+      </c>
+      <c r="M19">
+        <v>2.2666147809917949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>6.5549999999999971</v>
+      </c>
+      <c r="E20">
+        <v>34.262811461665692</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>3.2774999999999985</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>30.985311461665692</v>
+      </c>
+      <c r="I20">
+        <v>25.18499999999997</v>
+      </c>
+      <c r="J20">
+        <v>0.91117439457539451</v>
+      </c>
+      <c r="L20">
+        <v>6.8999999999999968</v>
+      </c>
+      <c r="M20">
+        <v>2.0957098716345546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>6.8999999999999968</v>
+      </c>
+      <c r="E21">
+        <v>35.014927308125365</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3.4499999999999984</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>31.564927308125366</v>
+      </c>
+      <c r="I21">
+        <v>25.299999999999969</v>
+      </c>
+      <c r="J21">
+        <v>0.90778055875409913</v>
+      </c>
+      <c r="L21">
+        <v>7.2449999999999966</v>
+      </c>
+      <c r="M21">
+        <v>1.9376913549221311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>7.2449999999999966</v>
+      </c>
+      <c r="E22">
+        <v>35.710332904725519</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>3.6224999999999983</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>32.087832904725524</v>
+      </c>
+      <c r="I22">
+        <v>25.414999999999967</v>
+      </c>
+      <c r="J22">
+        <v>0.9044864173690137</v>
+      </c>
+      <c r="L22">
+        <v>7.5899999999999963</v>
+      </c>
+      <c r="M22">
+        <v>1.7915875845980131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>7.5899999999999963</v>
+      </c>
+      <c r="E23">
+        <v>36.353304258219985</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>3.7949999999999982</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>32.558304258219991</v>
+      </c>
+      <c r="I23">
+        <v>25.529999999999966</v>
+      </c>
+      <c r="J23">
+        <v>0.90128873808043375</v>
+      </c>
+      <c r="L23">
+        <v>7.9349999999999961</v>
+      </c>
+      <c r="M23">
+        <v>1.6565001774571748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>7.9349999999999961</v>
+      </c>
+      <c r="E24">
+        <v>36.947794960388158</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>3.967499999999998</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>32.980294960388157</v>
+      </c>
+      <c r="I24">
+        <v>25.644999999999964</v>
+      </c>
+      <c r="J24">
+        <v>0.89818440887118078</v>
+      </c>
+      <c r="L24">
+        <v>8.2799999999999958</v>
+      </c>
+      <c r="M24">
+        <v>1.5315984892423407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>8.2799999999999958</v>
+      </c>
+      <c r="E25">
+        <v>37.497460498430598</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>4.1399999999999979</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>33.357460498430598</v>
+      </c>
+      <c r="I25">
+        <v>25.759999999999962</v>
+      </c>
+      <c r="J25">
+        <v>0.89517043279878616</v>
+      </c>
+      <c r="L25">
+        <v>8.6249999999999964</v>
+      </c>
+      <c r="M25">
+        <v>1.4161145070629284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>8.6249999999999964</v>
+      </c>
+      <c r="E26">
+        <v>38.005680732337666</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>4.3124999999999982</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>33.693180732337666</v>
+      </c>
+      <c r="I26">
+        <v>25.874999999999961</v>
+      </c>
+      <c r="J26">
+        <v>0.89224392301352151</v>
+      </c>
+      <c r="L26">
+        <v>8.9699999999999971</v>
+      </c>
+      <c r="M26">
+        <v>1.3093381269304545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>8.9699999999999971</v>
+      </c>
+      <c r="E27">
+        <v>38.475580677443212</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>4.4849999999999985</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>33.990580677443212</v>
+      </c>
+      <c r="I27">
+        <v>25.989999999999959</v>
+      </c>
+      <c r="J27">
+        <v>0.88940209802698733</v>
+      </c>
+      <c r="L27">
+        <v>9.3149999999999977</v>
+      </c>
+      <c r="M27">
+        <v>1.2106127873722634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>9.3149999999999977</v>
+      </c>
+      <c r="E28">
+        <v>38.91004971995396</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>4.6574999999999989</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>34.252549719953961</v>
+      </c>
+      <c r="I28">
+        <v>26.104999999999958</v>
+      </c>
+      <c r="J28">
+        <v>0.8866422772169793</v>
+      </c>
+      <c r="L28">
+        <v>9.6599999999999984</v>
+      </c>
+      <c r="M28">
+        <v>1.1193314322749317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>9.6599999999999984</v>
+      </c>
+      <c r="E29">
+        <v>39.311759383609726</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>4.8299999999999992</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>34.481759383609727</v>
+      </c>
+      <c r="I29">
+        <v>26.219999999999956</v>
+      </c>
+      <c r="J29">
+        <v>0.88396187655526282</v>
+      </c>
+      <c r="L29">
+        <v>10.004999999999999</v>
+      </c>
+      <c r="M29">
+        <v>1.0349327781331139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>10.004999999999999</v>
+      </c>
+      <c r="E30">
+        <v>39.683179756720506</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>5.0024999999999995</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>34.680679756720508</v>
+      </c>
+      <c r="I30">
+        <v>26.334999999999955</v>
+      </c>
+      <c r="J30">
+        <v>0.88135840454571401</v>
+      </c>
+      <c r="L30">
+        <v>10.35</v>
+      </c>
+      <c r="M30">
+        <v>0.956897862751382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>10.35</v>
+      </c>
+      <c r="E31">
+        <v>40.026594680589419</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>34.851594680589422</v>
+      </c>
+      <c r="I31">
+        <v>26.449999999999953</v>
+      </c>
+      <c r="J31">
+        <v>0.87882945836101922</v>
+      </c>
+      <c r="L31">
+        <v>10.695</v>
+      </c>
+      <c r="M31">
+        <v>0.88474685417721932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>10.695</v>
+      </c>
+      <c r="E32">
+        <v>40.344115792714085</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>5.3475000000000001</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>34.996615792714081</v>
+      </c>
+      <c r="I32">
+        <v>26.564999999999952</v>
+      </c>
+      <c r="J32">
+        <v>0.8763727201669298</v>
+      </c>
+      <c r="L32">
+        <v>11.040000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.81803610024350593</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>11.040000000000001</v>
+      </c>
+      <c r="E33">
+        <v>40.637695511117251</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>5.5200000000000005</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>35.117695511117248</v>
+      </c>
+      <c r="I33">
+        <v>26.67999999999995</v>
+      </c>
+      <c r="J33">
+        <v>0.87398595362379627</v>
+      </c>
+      <c r="L33">
+        <v>11.385000000000002</v>
+      </c>
+      <c r="M33">
+        <v>0.75635540057830164</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>11.385000000000002</v>
+      </c>
+      <c r="E34">
+        <v>40.909139039646611</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>5.6925000000000008</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>35.216639039646608</v>
+      </c>
+      <c r="I34">
+        <v>26.794999999999948</v>
+      </c>
+      <c r="J34">
+        <v>0.87166700055546853</v>
+      </c>
+      <c r="L34">
+        <v>11.730000000000002</v>
+      </c>
+      <c r="M34">
+        <v>0.69932548430768926</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>11.730000000000002</v>
+      </c>
+      <c r="E35">
+        <v>41.160115468063523</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>5.8650000000000011</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>35.295115468063521</v>
+      </c>
+      <c r="I35">
+        <v>26.909999999999947</v>
+      </c>
+      <c r="J35">
+        <v>0.86941377777669582</v>
+      </c>
+      <c r="L35">
+        <v>12.075000000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.64659567794221706</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>12.075000000000003</v>
+      </c>
+      <c r="E36">
+        <v>41.392168035174535</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>6.0375000000000014</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>35.354668035174534</v>
+      </c>
+      <c r="I36">
+        <v>27.024999999999945</v>
+      </c>
+      <c r="J36">
+        <v>0.86722427407019775</v>
+      </c>
+      <c r="L36">
+        <v>12.420000000000003</v>
+      </c>
+      <c r="M36">
+        <v>0.59784174910692367</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>12.420000000000003</v>
+      </c>
+      <c r="E37">
+        <v>41.606723618113016</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>6.2100000000000017</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>35.396723618113015</v>
+      </c>
+      <c r="I37">
+        <v>27.139999999999944</v>
+      </c>
+      <c r="J37">
+        <v>0.86509654730554209</v>
+      </c>
+      <c r="L37">
+        <v>12.765000000000004</v>
+      </c>
+      <c r="M37">
+        <v>0.55276391285616677</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>12.765000000000004</v>
+      </c>
+      <c r="E38">
+        <v>41.805101506119968</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>6.3825000000000021</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>35.422601506119967</v>
+      </c>
+      <c r="I38">
+        <v>27.254999999999942</v>
+      </c>
+      <c r="J38">
+        <v>0.86302872169214884</v>
+      </c>
+      <c r="L38">
+        <v>13.110000000000005</v>
+      </c>
+      <c r="M38">
+        <v>0.51108498831421156</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>13.110000000000005</v>
+      </c>
+      <c r="E39">
+        <v>41.988521512773353</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>6.5550000000000024</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>35.433521512773353</v>
+      </c>
+      <c r="I39">
+        <v>27.369999999999941</v>
+      </c>
+      <c r="J39">
+        <v>0.86101898515930764</v>
+      </c>
+      <c r="L39">
+        <v>13.455000000000005</v>
+      </c>
+      <c r="M39">
+        <v>0.47254869430686969</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>13.455000000000005</v>
+      </c>
+      <c r="E40">
+        <v>42.158111476547688</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>6.7275000000000027</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>35.430611476547682</v>
+      </c>
+      <c r="I40">
+        <v>27.484999999999939</v>
+      </c>
+      <c r="J40">
+        <v>0.85906558685657808</v>
+      </c>
+      <c r="L40">
+        <v>13.800000000000006</v>
+      </c>
+      <c r="M40">
+        <v>0.43691807350413225</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>13.800000000000006</v>
+      </c>
+      <c r="E41">
+        <v>42.314914195824279</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>6.900000000000003</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>35.414914195824274</v>
+      </c>
+      <c r="I41">
+        <v>27.599999999999937</v>
+      </c>
+      <c r="J41">
+        <v>0.85716683476814226</v>
+      </c>
+      <c r="L41">
+        <v>14.145000000000007</v>
+      </c>
+      <c r="M41">
+        <v>0.40397403538394916</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>14.145000000000007</v>
+      </c>
+      <c r="E42">
+        <v>42.459893840995086</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>7.0725000000000033</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>35.387393840995081</v>
+      </c>
+      <c r="I42">
+        <v>27.714999999999936</v>
+      </c>
+      <c r="J42">
+        <v>0.85532109343527629</v>
+      </c>
+      <c r="L42">
+        <v>14.490000000000007</v>
+      </c>
+      <c r="M42">
+        <v>0.37351400905792181</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>14.490000000000007</v>
+      </c>
+      <c r="E43">
+        <v>42.593941883087872</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>7.2450000000000037</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>35.348941883087868</v>
+      </c>
+      <c r="I43">
+        <v>27.829999999999934</v>
+      </c>
+      <c r="J43">
+        <v>0.85352678178124941</v>
+      </c>
+      <c r="L43">
+        <v>14.835000000000008</v>
+      </c>
+      <c r="M43">
+        <v>0.34535069767522125</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>14.835000000000008</v>
+      </c>
+      <c r="E44">
+        <v>42.717882575367405</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>7.417500000000004</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>35.300382575367401</v>
+      </c>
+      <c r="I44">
+        <v>27.944999999999933</v>
+      </c>
+      <c r="J44">
+        <v>0.85178237103352084</v>
+      </c>
+      <c r="L44">
+        <v>15.180000000000009</v>
+      </c>
+      <c r="M44">
+        <v>0.31931092674563355</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>15.180000000000009</v>
+      </c>
+      <c r="E45">
+        <v>42.832478021618662</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>7.5900000000000043</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>35.242478021618659</v>
+      </c>
+      <c r="I45">
+        <v>28.059999999999931</v>
+      </c>
+      <c r="J45">
+        <v>0.8500863827380476</v>
+      </c>
+      <c r="L45">
+        <v>15.525000000000009</v>
+      </c>
+      <c r="M45">
+        <v>0.29523457930014468</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>15.525000000000009</v>
+      </c>
+      <c r="E46">
+        <v>42.938432862276692</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>7.7625000000000046</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>35.175932862276689</v>
+      </c>
+      <c r="I46">
+        <v>28.17499999999993</v>
+      </c>
+      <c r="J46">
+        <v>0.84843738686125991</v>
+      </c>
+      <c r="L46">
+        <v>15.87000000000001</v>
+      </c>
+      <c r="M46">
+        <v>0.27297361134142689</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>15.87000000000001</v>
+      </c>
+      <c r="E47">
+        <v>43.036398607217841</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>7.9350000000000049</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>35.101398607217838</v>
+      </c>
+      <c r="I47">
+        <v>28.289999999999928</v>
+      </c>
+      <c r="J47">
+        <v>0.84683399997505315</v>
+      </c>
+      <c r="L47">
+        <v>16.215000000000011</v>
+      </c>
+      <c r="M47">
+        <v>0.25239114153029668</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>16.215000000000011</v>
+      </c>
+      <c r="E48">
+        <v>43.12697764185441</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>8.1075000000000053</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>35.019477641854408</v>
+      </c>
+      <c r="I48">
+        <v>28.404999999999927</v>
+      </c>
+      <c r="J48">
+        <v>0.84527488352085467</v>
+      </c>
+      <c r="L48">
+        <v>16.560000000000009</v>
+      </c>
+      <c r="M48">
+        <v>0.23336060951067769</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>16.560000000000009</v>
+      </c>
+      <c r="E49">
+        <v>43.210726931165901</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>8.2800000000000047</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>34.930726931165893</v>
+      </c>
+      <c r="I49">
+        <v>28.519999999999925</v>
+      </c>
+      <c r="J49">
+        <v>0.84375874214858215</v>
+      </c>
+      <c r="L49">
+        <v>16.905000000000008</v>
+      </c>
+      <c r="M49">
+        <v>0.21576499769766308</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>16.905000000000008</v>
+      </c>
+      <c r="E50">
+        <v>43.288161444442864</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>8.4525000000000041</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>34.835661444442863</v>
+      </c>
+      <c r="I50">
+        <v>28.634999999999923</v>
+      </c>
+      <c r="J50">
+        <v>0.84228432212701587</v>
+      </c>
+      <c r="L50">
+        <v>17.250000000000007</v>
+      </c>
+      <c r="M50">
+        <v>0.19949611174349624</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>17.250000000000007</v>
+      </c>
+      <c r="E51">
+        <v>43.359757321801759</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>8.6250000000000036</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>34.734757321801752</v>
+      </c>
+      <c r="I51">
+        <v>28.749999999999922</v>
+      </c>
+      <c r="J51">
+        <v>0.84085040982188386</v>
+      </c>
+      <c r="L51">
+        <v>17.595000000000006</v>
+      </c>
+      <c r="M51">
+        <v>0.18445391525710195</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>17.595000000000006</v>
+      </c>
+      <c r="E52">
+        <v>43.4259548019416</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>8.797500000000003</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>34.628454801941601</v>
+      </c>
+      <c r="I52">
+        <v>28.86499999999992</v>
+      </c>
+      <c r="J52">
+        <v>0.83945583023845383</v>
+      </c>
+      <c r="L52">
+        <v>17.940000000000005</v>
+      </c>
+      <c r="M52">
+        <v>0.17054591468639668</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>17.940000000000005</v>
+      </c>
+      <c r="E53">
+        <v>43.487160929144956</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>8.9700000000000024</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>34.51716092914495</v>
+      </c>
+      <c r="I53">
+        <v>28.979999999999919</v>
+      </c>
+      <c r="J53">
+        <v>0.83809944562544958</v>
+      </c>
+      <c r="L53">
+        <v>18.285000000000004</v>
+      </c>
+      <c r="M53">
+        <v>0.15768659058105725</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>18.285000000000004</v>
+      </c>
+      <c r="E54">
+        <v>43.543752056168522</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>9.1425000000000018</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>34.401252056168516</v>
+      </c>
+      <c r="I54">
+        <v>29.094999999999917</v>
+      </c>
+      <c r="J54">
+        <v>0.83678015413735496</v>
+      </c>
+      <c r="L54">
+        <v>18.630000000000003</v>
+      </c>
+      <c r="M54">
+        <v>0.14579687173861877</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>18.630000000000003</v>
+      </c>
+      <c r="E55">
+        <v>43.596076158413332</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>9.3150000000000013</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>34.281076158413327</v>
+      </c>
+      <c r="I55">
+        <v>29.209999999999916</v>
+      </c>
+      <c r="J55">
+        <v>0.83549688855226023</v>
+      </c>
+      <c r="L55">
+        <v>18.975000000000001</v>
+      </c>
+      <c r="M55">
+        <v>0.13480364900045472</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>18.975000000000001</v>
+      </c>
+      <c r="E56">
+        <v>43.644454973604368</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>9.4875000000000007</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>34.156954973604371</v>
+      </c>
+      <c r="I56">
+        <v>29.324999999999914</v>
+      </c>
+      <c r="J56">
+        <v>0.83424861504264403</v>
+      </c>
+      <c r="L56">
+        <v>19.32</v>
+      </c>
+      <c r="M56">
+        <v>0.12463932570800396</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>19.32</v>
+      </c>
+      <c r="E57">
+        <v>43.689185980136259</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>9.66</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>34.029185980136262</v>
+      </c>
+      <c r="I57">
+        <v>29.439999999999912</v>
+      </c>
+      <c r="J57">
+        <v>0.83303433199656496</v>
+      </c>
+      <c r="L57">
+        <v>19.664999999999999</v>
+      </c>
+      <c r="M57">
+        <v>0.11524140205502528</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>19.664999999999999</v>
+      </c>
+      <c r="E58">
+        <v>43.730544226249883</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>9.8324999999999996</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>33.89804422624988</v>
+      </c>
+      <c r="I58">
+        <v>29.554999999999911</v>
+      </c>
+      <c r="J58">
+        <v>0.83185306888682742</v>
+      </c>
+      <c r="L58">
+        <v>20.009999999999998</v>
+      </c>
+      <c r="M58">
+        <v>0.10655209078008623</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>20.009999999999998</v>
+      </c>
+      <c r="E59">
+        <v>43.76878402128726</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>10.004999999999999</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>33.763784021287265</v>
+      </c>
+      <c r="I59">
+        <v>29.669999999999909</v>
+      </c>
+      <c r="J59">
+        <v>0.83070388518601757</v>
+      </c>
+      <c r="L59">
+        <v>20.354999999999997</v>
+      </c>
+      <c r="M59">
+        <v>9.8517961836205092E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>20.354999999999997</v>
+      </c>
+      <c r="E60">
+        <v>43.80414049942425</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>10.177499999999998</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>33.626640499424255</v>
+      </c>
+      <c r="I60">
+        <v>29.784999999999908</v>
+      </c>
+      <c r="J60">
+        <v>0.82958586932509637</v>
+      </c>
+      <c r="L60">
+        <v>20.699999999999996</v>
+      </c>
+      <c r="M60">
+        <v>9.108961385273813E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>20.699999999999996</v>
+      </c>
+      <c r="E61">
+        <v>43.836831065496312</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>10.349999999999998</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>33.486831065496318</v>
+      </c>
+      <c r="I61">
+        <v>29.899999999999906</v>
+      </c>
+      <c r="J61">
+        <v>0.82849813769366953</v>
+      </c>
+      <c r="L61">
+        <v>21.044999999999995</v>
+      </c>
+      <c r="M61">
+        <v>8.4221370369354398E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>21.044999999999995</v>
+      </c>
+      <c r="E62">
+        <v>43.867056731807615</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>10.522499999999997</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>33.344556731807614</v>
+      </c>
+      <c r="I62">
+        <v>30.014999999999905</v>
+      </c>
+      <c r="J62">
+        <v>0.82743983367995977</v>
+      </c>
+      <c r="L62">
+        <v>21.389999999999993</v>
+      </c>
+      <c r="M62">
+        <v>7.7870998974256214E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>21.389999999999993</v>
+      </c>
+      <c r="E63">
+        <v>43.895003354143512</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>10.694999999999997</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>33.200003354143519</v>
+      </c>
+      <c r="I63">
+        <v>30.129999999999903</v>
+      </c>
+      <c r="J63">
+        <v>0.8264101267486389</v>
+      </c>
+      <c r="L63">
+        <v>21.734999999999992</v>
+      </c>
+      <c r="M63">
+        <v>7.1999451619645868E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>21.734999999999992</v>
+      </c>
+      <c r="E64">
+        <v>43.920842774586433</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>10.867499999999996</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>33.05334277458644</v>
+      </c>
+      <c r="I64">
+        <v>30.244999999999902</v>
+      </c>
+      <c r="J64">
+        <v>0.82540821155489053</v>
+      </c>
+      <c r="L64">
+        <v>22.079999999999991</v>
+      </c>
+      <c r="M64">
+        <v>6.6570624517652721E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>22.079999999999991</v>
+      </c>
+      <c r="E65">
+        <v>43.944733878162424</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>11.039999999999996</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>32.904733878162432</v>
+      </c>
+      <c r="I65">
+        <v>30.3599999999999</v>
+      </c>
+      <c r="J65">
+        <v>0.82443330709296103</v>
+      </c>
+      <c r="L65">
+        <v>22.42499999999999</v>
+      </c>
+      <c r="M65">
+        <v>6.1551136140335208E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>22.42499999999999</v>
+      </c>
+      <c r="E66">
+        <v>43.96682356981551</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F101" si="2">D66*0.5</f>
+        <v>11.212499999999995</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66:G101" si="3">E66-F66</f>
+        <v>32.754323569815512</v>
+      </c>
+      <c r="I66">
+        <v>30.474999999999898</v>
+      </c>
+      <c r="J66">
+        <v>0.82348465587774455</v>
+      </c>
+      <c r="L66">
+        <v>22.769999999999989</v>
+      </c>
+      <c r="M66">
+        <v>5.6910121958694625E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>22.769999999999989</v>
+      </c>
+      <c r="E67">
+        <v>43.987247677717292</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>11.384999999999994</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="3"/>
+        <v>32.602247677717301</v>
+      </c>
+      <c r="I67">
+        <v>30.589999999999897</v>
+      </c>
+      <c r="J67">
+        <v>0.82256152315783115</v>
+      </c>
+      <c r="L67">
+        <v>23.114999999999988</v>
+      </c>
+      <c r="M67">
+        <v>5.261904465856148E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>23.114999999999988</v>
+      </c>
+      <c r="E68">
+        <v>44.006131788466078</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>11.557499999999994</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>32.448631788466088</v>
+      </c>
+      <c r="I68">
+        <v>30.704999999999895</v>
+      </c>
+      <c r="J68">
+        <v>0.82166319615874506</v>
+      </c>
+      <c r="L68">
+        <v>23.459999999999987</v>
+      </c>
+      <c r="M68">
+        <v>4.8651518666385112E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>23.459999999999987</v>
+      </c>
+      <c r="E69">
+        <v>44.023592019311288</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>11.729999999999993</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>32.293592019311291</v>
+      </c>
+      <c r="I69">
+        <v>30.819999999999894</v>
+      </c>
+      <c r="J69">
+        <v>0.82078898335489503</v>
+      </c>
+      <c r="L69">
+        <v>23.804999999999986</v>
+      </c>
+      <c r="M69">
+        <v>4.4983147905945473E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>23.804999999999986</v>
+      </c>
+      <c r="E70">
+        <v>44.039735732151321</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>11.902499999999993</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>32.137235732151325</v>
+      </c>
+      <c r="I70">
+        <v>30.934999999999892</v>
+      </c>
+      <c r="J70">
+        <v>0.81993821376913201</v>
+      </c>
+      <c r="L70">
+        <v>24.149999999999984</v>
+      </c>
+      <c r="M70">
+        <v>4.1591375788362688E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>24.149999999999984</v>
+      </c>
+      <c r="E71">
+        <v>44.054662193695393</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>12.074999999999992</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>31.9796621936954</v>
+      </c>
+      <c r="I71">
+        <v>31.049999999999891</v>
+      </c>
+      <c r="J71">
+        <v>0.81911023629858937</v>
+      </c>
+      <c r="L71">
+        <v>24.494999999999983</v>
+      </c>
+      <c r="M71">
+        <v>3.8455346513003107E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>24.494999999999983</v>
+      </c>
+      <c r="E72">
+        <v>44.068463185848458</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>12.247499999999992</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>31.820963185848466</v>
+      </c>
+      <c r="I72">
+        <v>31.164999999999889</v>
+      </c>
+      <c r="J72">
+        <v>0.81830441906574525</v>
+      </c>
+      <c r="L72">
+        <v>24.839999999999982</v>
+      </c>
+      <c r="M72">
+        <v>3.5555776826428347E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>24.839999999999982</v>
+      </c>
+      <c r="E73">
+        <v>44.081223570072581</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>12.419999999999991</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>31.66122357007259</v>
+      </c>
+      <c r="I73">
+        <v>31.279999999999887</v>
+      </c>
+      <c r="J73">
+        <v>0.81752014879357349</v>
+      </c>
+      <c r="L73">
+        <v>25.184999999999981</v>
+      </c>
+      <c r="M73">
+        <v>3.2874837450841979E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>25.184999999999981</v>
+      </c>
+      <c r="E74">
+        <v>44.093021809194909</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>12.59249999999999</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>31.500521809194918</v>
+      </c>
+      <c r="I74">
+        <v>31.394999999999886</v>
+      </c>
+      <c r="J74">
+        <v>0.81675683020378431</v>
+      </c>
+      <c r="L74">
+        <v>25.52999999999998</v>
+      </c>
+      <c r="M74">
+        <v>3.0396043452943635E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>25.52999999999998</v>
+      </c>
+      <c r="E75">
+        <v>44.103930449870823</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>12.76499999999999</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>31.338930449870833</v>
+      </c>
+      <c r="I75">
+        <v>31.509999999999884</v>
+      </c>
+      <c r="J75">
+        <v>0.81601388543719744</v>
+      </c>
+      <c r="L75">
+        <v>25.874999999999979</v>
+      </c>
+      <c r="M75">
+        <v>2.8104152879076017E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>25.874999999999979</v>
+      </c>
+      <c r="E76">
+        <v>44.114016568668937</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>12.937499999999989</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>31.176516568668948</v>
+      </c>
+      <c r="I76">
+        <v>31.624999999999883</v>
+      </c>
+      <c r="J76">
+        <v>0.81529075349519176</v>
+      </c>
+      <c r="L76">
+        <v>26.219999999999978</v>
+      </c>
+      <c r="M76">
+        <v>2.5985073033378204E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>26.219999999999978</v>
+      </c>
+      <c r="E77">
+        <v>44.123342184520794</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>13.109999999999989</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>31.013342184520805</v>
+      </c>
+      <c r="I77">
+        <v>31.739999999999881</v>
+      </c>
+      <c r="J77">
+        <v>0.81458688970154114</v>
+      </c>
+      <c r="L77">
+        <v>26.564999999999976</v>
+      </c>
+      <c r="M77">
+        <v>2.4025773822654986E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>26.564999999999976</v>
+      </c>
+      <c r="E78">
+        <v>44.131964640071565</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>13.282499999999988</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>30.849464640071577</v>
+      </c>
+      <c r="I78">
+        <v>31.85499999999988</v>
+      </c>
+      <c r="J78">
+        <v>0.81390176518360702</v>
+      </c>
+      <c r="L78">
+        <v>26.909999999999975</v>
+      </c>
+      <c r="M78">
+        <v>2.2214207635125896E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>26.909999999999975</v>
+      </c>
+      <c r="E79">
+        <v>44.139936954276436</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>13.454999999999988</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>30.684936954276449</v>
+      </c>
+      <c r="I79">
+        <v>31.969999999999878</v>
+      </c>
+      <c r="J79">
+        <v>0.81323486637216968</v>
+      </c>
+      <c r="L79">
+        <v>27.254999999999974</v>
+      </c>
+      <c r="M79">
+        <v>2.0539235260392304E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>27.254999999999974</v>
+      </c>
+      <c r="E80">
+        <v>44.147308148410985</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>13.627499999999987</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>30.519808148410998</v>
+      </c>
+      <c r="I80">
+        <v>32.08499999999988</v>
+      </c>
+      <c r="J80">
+        <v>0.81258569451916152</v>
+      </c>
+      <c r="L80">
+        <v>27.599999999999973</v>
+      </c>
+      <c r="M80">
+        <v>1.8990557395109686E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>27.599999999999973</v>
+      </c>
+      <c r="E81">
+        <v>44.154123547499992</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>13.799999999999986</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>30.354123547500006</v>
+      </c>
+      <c r="I81">
+        <v>32.199999999999882</v>
+      </c>
+      <c r="J81">
+        <v>0.81195376523244178</v>
+      </c>
+      <c r="L81">
+        <v>27.944999999999972</v>
+      </c>
+      <c r="M81">
+        <v>1.7558651313197293E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>27.944999999999972</v>
+      </c>
+      <c r="E82">
+        <v>44.160425059018287</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>13.972499999999986</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>30.187925059018301</v>
+      </c>
+      <c r="I82">
+        <v>32.314999999999884</v>
+      </c>
+      <c r="J82">
+        <v>0.81133860802709368</v>
+      </c>
+      <c r="L82">
+        <v>28.289999999999971</v>
+      </c>
+      <c r="M82">
+        <v>1.6234712311174057E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>28.289999999999971</v>
+      </c>
+      <c r="E83">
+        <v>44.166251430577262</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>14.144999999999985</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>30.021251430577276</v>
+      </c>
+      <c r="I83">
+        <v>32.429999999999886</v>
+      </c>
+      <c r="J83">
+        <v>0.8107397658924036</v>
+      </c>
+      <c r="L83">
+        <v>28.63499999999997</v>
+      </c>
+      <c r="M83">
+        <v>1.5010599568572074E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>28.63499999999997</v>
+      </c>
+      <c r="E84">
+        <v>44.171638488181557</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>14.317499999999985</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>29.854138488181572</v>
+      </c>
+      <c r="I84">
+        <v>32.544999999999888</v>
+      </c>
+      <c r="J84">
+        <v>0.81015679487401293</v>
+      </c>
+      <c r="L84">
+        <v>28.979999999999968</v>
+      </c>
+      <c r="M84">
+        <v>1.3878786090526136E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>28.979999999999968</v>
+      </c>
+      <c r="E85">
+        <v>44.176619356521009</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>14.489999999999984</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>29.686619356521025</v>
+      </c>
+      <c r="I85">
+        <v>32.65999999999989</v>
+      </c>
+      <c r="J85">
+        <v>0.80958926367060435</v>
+      </c>
+      <c r="L85">
+        <v>29.324999999999967</v>
+      </c>
+      <c r="M85">
+        <v>1.2832312424739839E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>29.324999999999967</v>
+      </c>
+      <c r="E86">
+        <v>44.181224662652362</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>14.662499999999984</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>29.518724662652378</v>
+      </c>
+      <c r="I86">
+        <v>32.774999999999892</v>
+      </c>
+      <c r="J86">
+        <v>0.80903675324446256</v>
+      </c>
+      <c r="L86">
+        <v>29.669999999999966</v>
+      </c>
+      <c r="M86">
+        <v>1.1864743868236246E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>29.669999999999966</v>
+      </c>
+      <c r="E87">
+        <v>44.185482724323144</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>14.834999999999983</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>29.350482724323161</v>
+      </c>
+      <c r="I87">
+        <v>32.889999999999894</v>
+      </c>
+      <c r="J87">
+        <v>0.808498856445522</v>
+      </c>
+      <c r="L87">
+        <v>30.014999999999965</v>
+      </c>
+      <c r="M87">
+        <v>1.0970130900760348E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>30.014999999999965</v>
+      </c>
+      <c r="E88">
+        <v>44.189419724095806</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>15.007499999999983</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>29.181919724095824</v>
+      </c>
+      <c r="I88">
+        <v>33.004999999999896</v>
+      </c>
+      <c r="J88">
+        <v>0.80797517764820903</v>
+      </c>
+      <c r="L88">
+        <v>30.359999999999964</v>
+      </c>
+      <c r="M88">
+        <v>1.0142972601540607E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>30.359999999999964</v>
+      </c>
+      <c r="E89">
+        <v>44.193059870342708</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>15.179999999999982</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>29.013059870342726</v>
+      </c>
+      <c r="I89">
+        <v>33.119999999999898</v>
+      </c>
+      <c r="J89">
+        <v>0.80746533240066054</v>
+      </c>
+      <c r="L89">
+        <v>30.704999999999963</v>
+      </c>
+      <c r="M89">
+        <v>9.3781828244613435E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>30.704999999999963</v>
+      </c>
+      <c r="E90">
+        <v>44.196425546101906</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>15.352499999999981</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>28.843925546101925</v>
+      </c>
+      <c r="I90">
+        <v>33.2349999999999</v>
+      </c>
+      <c r="J90">
+        <v>0.80696894708587141</v>
+      </c>
+      <c r="L90">
+        <v>31.049999999999962</v>
+      </c>
+      <c r="M90">
+        <v>8.6710589236594325E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>31.049999999999962</v>
+      </c>
+      <c r="E91">
+        <v>44.199537446709115</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>15.524999999999981</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>28.674537446709135</v>
+      </c>
+      <c r="I91">
+        <v>33.349999999999902</v>
+      </c>
+      <c r="J91">
+        <v>0.80648565859419075</v>
+      </c>
+      <c r="L91">
+        <v>31.39499999999996</v>
+      </c>
+      <c r="M91">
+        <v>8.0172528372406127E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>31.39499999999996</v>
+      </c>
+      <c r="E92">
+        <v>44.202414707052057</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>15.69749999999998</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="3"/>
+        <v>28.504914707052077</v>
+      </c>
+      <c r="I92">
+        <v>33.464999999999904</v>
+      </c>
+      <c r="J92">
+        <v>0.80601511400687342</v>
+      </c>
+      <c r="L92">
+        <v>31.739999999999959</v>
+      </c>
+      <c r="M92">
+        <v>7.4127443513111483E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>31.739999999999959</v>
+      </c>
+      <c r="E93">
+        <v>44.205075019229724</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>15.86999999999998</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="3"/>
+        <v>28.335075019229745</v>
+      </c>
+      <c r="I93">
+        <v>33.579999999999906</v>
+      </c>
+      <c r="J93">
+        <v>0.80555697029014461</v>
+      </c>
+      <c r="L93">
+        <v>32.084999999999958</v>
+      </c>
+      <c r="M93">
+        <v>6.8538163799269332E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>32.084999999999958</v>
+      </c>
+      <c r="E94">
+        <v>44.207534741340041</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>16.042499999999979</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="3"/>
+        <v>28.165034741340062</v>
+      </c>
+      <c r="I94">
+        <v>33.694999999999908</v>
+      </c>
+      <c r="J94">
+        <v>0.80511089399944902</v>
+      </c>
+      <c r="L94">
+        <v>32.429999999999957</v>
+      </c>
+      <c r="M94">
+        <v>6.3370321089578525E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>32.429999999999957</v>
+      </c>
+      <c r="E95">
+        <v>44.20980899806478</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>16.214999999999979</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="3"/>
+        <v>27.994808998064801</v>
+      </c>
+      <c r="I95">
+        <v>33.80999999999991</v>
+      </c>
+      <c r="J95">
+        <v>0.8046765609934845</v>
+      </c>
+      <c r="L95">
+        <v>32.774999999999956</v>
+      </c>
+      <c r="M95">
+        <v>5.8592138633266032E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>32.774999999999956</v>
+      </c>
+      <c r="E96">
+        <v>44.211911773670344</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>16.387499999999978</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="3"/>
+        <v>27.824411773670366</v>
+      </c>
+      <c r="I96">
+        <v>33.924999999999912</v>
+      </c>
+      <c r="J96">
+        <v>0.80425365615761579</v>
+      </c>
+      <c r="L96">
+        <v>33.119999999999955</v>
+      </c>
+      <c r="M96">
+        <v>5.4174235676777054E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>33.119999999999955</v>
+      </c>
+      <c r="E97">
+        <v>44.213855997996134</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>16.559999999999977</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="3"/>
+        <v>27.653855997996157</v>
+      </c>
+      <c r="I97">
+        <v>34.039999999999914</v>
+      </c>
+      <c r="J97">
+        <v>0.80384187313641342</v>
+      </c>
+      <c r="L97">
+        <v>33.464999999999954</v>
+      </c>
+      <c r="M97">
+        <v>5.0089446803307331E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>33.464999999999954</v>
+      </c>
+      <c r="E98">
+        <v>44.215653625959391</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>16.732499999999977</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="3"/>
+        <v>27.483153625959414</v>
+      </c>
+      <c r="I98">
+        <v>34.154999999999916</v>
+      </c>
+      <c r="J98">
+        <v>0.80344091407483786</v>
+      </c>
+      <c r="L98">
+        <v>33.809999999999953</v>
+      </c>
+      <c r="M98">
+        <v>4.631265489430561E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>33.809999999999953</v>
+      </c>
+      <c r="E99">
+        <v>44.217315711065204</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>16.904999999999976</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="3"/>
+        <v>27.312315711065228</v>
+      </c>
+      <c r="I99">
+        <v>34.269999999999918</v>
+      </c>
+      <c r="J99">
+        <v>0.80305048936787693</v>
+      </c>
+      <c r="L99">
+        <v>34.154999999999951</v>
+      </c>
+      <c r="M99">
+        <v>4.2820636685838298E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>34.154999999999951</v>
+      </c>
+      <c r="E100">
+        <v>44.218852473373907</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>17.077499999999976</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="3"/>
+        <v>27.141352473373932</v>
+      </c>
+      <c r="I100">
+        <v>34.38499999999992</v>
+      </c>
+      <c r="J100">
+        <v>0.80267031741825856</v>
+      </c>
+      <c r="L100">
+        <v>34.49999999999995</v>
+      </c>
+      <c r="M100">
+        <v>3.9591919970150833E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>34.49999999999995</v>
+      </c>
+      <c r="E101">
+        <v>44.220273362343526</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>17.249999999999975</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="3"/>
+        <v>26.970273362343551</v>
+      </c>
+      <c r="I101">
+        <v>34.499999999999922</v>
+      </c>
+      <c r="J101">
+        <v>0.80230012440195031</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="C2:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" customWidth="1"/>
+    <col min="8" max="10" width="4.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="P1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
+        <v>42153</v>
+      </c>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1">
+        <f>SUM(E2:M2)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3"/>
+      <c r="P2">
         <f>((300000/20)*2)/125</f>
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D24" si="0">SUM(E3:M3)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
+        <v>42157</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>42158</v>
+      </c>
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="3"/>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>42159</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="3"/>
+      <c r="P6">
+        <f>P2*2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>42160</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f>E2*2</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
+      <c r="B8" s="2">
+        <v>42170</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="3"/>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
+        <v>42171</v>
+      </c>
+      <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="3"/>
+      <c r="P9">
         <f>(300000/20)/125</f>
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>42173</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2">
+        <v>42174</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42179</v>
+      </c>
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="3"/>
+      <c r="O12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12">
+        <f>P9/(P6-P2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
+        <v>42180</v>
+      </c>
+      <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
+        <v>42181</v>
+      </c>
+      <c r="C14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14">
-        <f>E11/(E6-E2)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
+        <v>42182</v>
+      </c>
+      <c r="C15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
+        <v>42183</v>
+      </c>
+      <c r="C16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2">
+        <v>42184</v>
+      </c>
+      <c r="C17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
+        <v>42186</v>
+      </c>
+      <c r="C19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2">
+        <v>42187</v>
+      </c>
+      <c r="C20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
+        <v>42188</v>
+      </c>
+      <c r="C21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2">
+        <v>42189</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2">
+        <v>42190</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
+        <v>42191</v>
+      </c>
+      <c r="C24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
+        <v>42192</v>
+      </c>
+      <c r="C25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
+        <v>42193</v>
+      </c>
+      <c r="C26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
+        <v>42194</v>
+      </c>
+      <c r="C27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
+        <v>42195</v>
+      </c>
+      <c r="C28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
+        <v>42196</v>
+      </c>
+      <c r="C29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
+        <v>42197</v>
+      </c>
+      <c r="C30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
+        <v>42198</v>
+      </c>
+      <c r="C31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
+        <v>42199</v>
+      </c>
+      <c r="C32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
+        <v>42200</v>
+      </c>
+      <c r="C33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
+        <v>42201</v>
+      </c>
+      <c r="C34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
+        <v>42202</v>
+      </c>
+      <c r="C35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
+        <v>42203</v>
+      </c>
+      <c r="C36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
